--- a/Sioux Falls Network/02 - Measurement Units/minimum_input/standard_solution_link_performance_comparison.xlsx
+++ b/Sioux Falls Network/02 - Measurement Units/minimum_input/standard_solution_link_performance_comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditr\OneDrive\Desktop\Chapter 2 - Sioux Falls Network\Topic 0 - Standard Solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditr\OneDrive\Desktop\Arizona State University\GitHub\DTALite\Sioux Falls Network\00 - Standard Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A53110-AE49-4A05-A8E7-E45DF17F555E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B044EBB-A6CF-45C6-97EA-E90BD77D4107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,232 +505,232 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>4523.6019999999999</c:v>
+                  <c:v>4835.0129999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8149.51</c:v>
+                  <c:v>8468.4060000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4549.51</c:v>
+                  <c:v>4868.4059999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5953.9989999999998</c:v>
+                  <c:v>5799.308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8123.6019999999999</c:v>
+                  <c:v>8435.0130000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14111.183000000001</c:v>
+                  <c:v>14728.017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10106.228999999999</c:v>
+                  <c:v>10518.662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14126.321</c:v>
+                  <c:v>14685.960999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18111.184000000001</c:v>
+                  <c:v>18607.732</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5200</c:v>
+                  <c:v>5194.2079999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18126.322</c:v>
+                  <c:v>18661.407999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8782.1219999999994</c:v>
+                  <c:v>8604.7019999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15798.766</c:v>
+                  <c:v>15872.916999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5979.9070000000002</c:v>
+                  <c:v>5832.701</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8786.9740000000002</c:v>
+                  <c:v>8633.1489999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12505.724</c:v>
+                  <c:v>12639.714</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12107.777</c:v>
+                  <c:v>12334.923000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15893.578</c:v>
+                  <c:v>15766.467000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12536.483</c:v>
+                  <c:v>12701.556</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12051.413</c:v>
+                  <c:v>12181.716</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6875.0140000000001</c:v>
+                  <c:v>6933.3230000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8386.1790000000001</c:v>
+                  <c:v>8390.7530000000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15809.053</c:v>
+                  <c:v>15898.146000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6831.8680000000004</c:v>
+                  <c:v>6832.7539999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21766.898000000001</c:v>
+                  <c:v>21999.355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21834.039000000001</c:v>
+                  <c:v>22024.016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17722.447</c:v>
+                  <c:v>17687.223000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23131.93</c:v>
+                  <c:v>23049.863000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11049.253000000001</c:v>
+                  <c:v>11094.856</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5300</c:v>
+                  <c:v>5198.4750000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17602.449000000001</c:v>
+                  <c:v>17622.657999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8353.4230000000007</c:v>
+                  <c:v>8363.3799999999992</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9781.2950000000001</c:v>
+                  <c:v>9771.0059999999994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10065.182000000001</c:v>
+                  <c:v>10527.324000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8395.5789999999997</c:v>
+                  <c:v>8377.2240000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12359.651</c:v>
+                  <c:v>13021.800999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12460.761</c:v>
+                  <c:v>13144.307000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11099.932000000001</c:v>
+                  <c:v>11011.807000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9819.14</c:v>
+                  <c:v>9796.8639999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9026.4740000000002</c:v>
+                  <c:v>8993.6959999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8377.9249999999993</c:v>
+                  <c:v>8213.3140000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23194.493999999999</c:v>
+                  <c:v>23024.338</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9071.6329999999998</c:v>
+                  <c:v>9030.1790000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>19098.488000000001</c:v>
+                  <c:v>19006.115000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18384.083999999999</c:v>
+                  <c:v>18203.232</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8403.7199999999993</c:v>
+                  <c:v>8399.9549999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11073.828</c:v>
+                  <c:v>11109.608</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11608.823</c:v>
+                  <c:v>11075.444</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15422.482</c:v>
+                  <c:v>16139.652</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11604.877</c:v>
+                  <c:v>11190.294</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9914.3050000000003</c:v>
+                  <c:v>9587.1059999999998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15949.942999999999</c:v>
+                  <c:v>15919.674999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>15468.545</c:v>
+                  <c:v>16048.755999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19114.705000000002</c:v>
+                  <c:v>19859.791000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19136.333999999999</c:v>
+                  <c:v>18902.998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9910.3590000000004</c:v>
+                  <c:v>9701.9570000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8644.4529999999995</c:v>
+                  <c:v>8564.2209999999995</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19117.133000000002</c:v>
+                  <c:v>19822.101999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8678.3520000000008</c:v>
+                  <c:v>8575.9529999999995</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6278.34</c:v>
+                  <c:v>6203.6679999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7000</c:v>
+                  <c:v>7048.848</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6214.6670000000004</c:v>
+                  <c:v>6124.3029999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8578.7090000000007</c:v>
+                  <c:v>8503.4590000000007</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10312.878000000001</c:v>
+                  <c:v>10226.228999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18353.960999999999</c:v>
+                  <c:v>18217.307000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7000</c:v>
+                  <c:v>7002.2569999999996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8573.8459999999995</c:v>
+                  <c:v>8489.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9647.5059999999994</c:v>
+                  <c:v>9556.6679999999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8370.6110000000008</c:v>
+                  <c:v>8202.69</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9612.52</c:v>
+                  <c:v>9510.393</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7888.1629999999996</c:v>
+                  <c:v>7846.5360000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11101.040999999999</c:v>
+                  <c:v>11034.312</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10254.066999999999</c:v>
+                  <c:v>10160.623</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7845.8639999999996</c:v>
+                  <c:v>7789.6360000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,7 +1780,7 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5"/>
@@ -1841,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2">
-        <v>4523.6019999999999</v>
+        <v>4835.0129999999999</v>
       </c>
       <c r="F2">
         <v>5083.2139999999999</v>
@@ -1879,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2">
-        <v>8149.51</v>
+        <v>8468.4060000000009</v>
       </c>
       <c r="F3">
         <v>8782.6139999999996</v>
@@ -1917,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2">
-        <v>4549.51</v>
+        <v>4868.4059999999999</v>
       </c>
       <c r="F4">
         <v>5182.6130000000003</v>
@@ -1955,7 +1955,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2">
-        <v>5953.9989999999998</v>
+        <v>5799.308</v>
       </c>
       <c r="F5">
         <v>5483.2139999999999</v>
@@ -1993,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>8123.6019999999999</v>
+        <v>8435.0130000000008</v>
       </c>
       <c r="F6">
         <v>8683.2150000000001</v>
@@ -2031,7 +2031,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="2">
-        <v>14111.183000000001</v>
+        <v>14728.017</v>
       </c>
       <c r="F7">
         <v>14796.576999999999</v>
@@ -2069,7 +2069,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="2">
-        <v>10106.228999999999</v>
+        <v>10518.662</v>
       </c>
       <c r="F8">
         <v>10373.788</v>
@@ -2107,7 +2107,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2">
-        <v>14126.321</v>
+        <v>14685.960999999999</v>
       </c>
       <c r="F9">
         <v>14791.177</v>
@@ -2145,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2">
-        <v>18111.184000000001</v>
+        <v>18607.732</v>
       </c>
       <c r="F10">
         <v>18945.743999999999</v>
@@ -2183,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2">
-        <v>5200</v>
+        <v>5194.2079999999996</v>
       </c>
       <c r="F11">
         <v>5240.8310000000001</v>
@@ -2221,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="2">
-        <v>18126.322</v>
+        <v>18661.407999999999</v>
       </c>
       <c r="F12">
         <v>18832.006000000001</v>
@@ -2259,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="2">
-        <v>8782.1219999999994</v>
+        <v>8604.7019999999993</v>
       </c>
       <c r="F13">
         <v>8554.2849999999999</v>
@@ -2297,7 +2297,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="2">
-        <v>15798.766</v>
+        <v>15872.916999999999</v>
       </c>
       <c r="F14">
         <v>15714.925999999999</v>
@@ -2335,7 +2335,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>5979.9070000000002</v>
+        <v>5832.701</v>
       </c>
       <c r="F15">
         <v>5582.6130000000003</v>
@@ -2373,7 +2373,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>8786.9740000000002</v>
+        <v>8633.1489999999994</v>
       </c>
       <c r="F16">
         <v>8519.1620000000003</v>
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2">
-        <v>12505.724</v>
+        <v>12639.714</v>
       </c>
       <c r="F17">
         <v>12837.499</v>
@@ -2449,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="2">
-        <v>12107.777</v>
+        <v>12334.923000000001</v>
       </c>
       <c r="F18">
         <v>12616.312</v>
@@ -2487,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="2">
-        <v>15893.578</v>
+        <v>15766.467000000001</v>
       </c>
       <c r="F19">
         <v>15620.555</v>
@@ -2525,7 +2525,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="2">
-        <v>12536.483</v>
+        <v>12701.556</v>
       </c>
       <c r="F20">
         <v>12901.775</v>
@@ -2563,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="2">
-        <v>12051.413</v>
+        <v>12181.716</v>
       </c>
       <c r="F21">
         <v>12528.57</v>
@@ -2601,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="2">
-        <v>6875.0140000000001</v>
+        <v>6933.3230000000003</v>
       </c>
       <c r="F22">
         <v>7211.1840000000002</v>
@@ -2639,7 +2639,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="2">
-        <v>8386.1790000000001</v>
+        <v>8390.7530000000006</v>
       </c>
       <c r="F23">
         <v>8565.5689999999995</v>
@@ -2677,7 +2677,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="2">
-        <v>15809.053</v>
+        <v>15898.146000000001</v>
       </c>
       <c r="F24">
         <v>15636.311</v>
@@ -2715,7 +2715,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="2">
-        <v>6831.8680000000004</v>
+        <v>6832.7539999999999</v>
       </c>
       <c r="F25">
         <v>7156.6409999999996</v>
@@ -2753,7 +2753,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="2">
-        <v>21766.898000000001</v>
+        <v>21999.355</v>
       </c>
       <c r="F26">
         <v>21936.92</v>
@@ -2791,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="2">
-        <v>21834.039000000001</v>
+        <v>22024.016</v>
       </c>
       <c r="F27">
         <v>21903.759999999998</v>
@@ -2829,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="2">
-        <v>17722.447</v>
+        <v>17687.223000000002</v>
       </c>
       <c r="F28">
         <v>17616.918000000001</v>
@@ -2867,7 +2867,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="2">
-        <v>23131.93</v>
+        <v>23049.863000000001</v>
       </c>
       <c r="F29">
         <v>22471.785</v>
@@ -2905,7 +2905,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="2">
-        <v>11049.253000000001</v>
+        <v>11094.856</v>
       </c>
       <c r="F30">
         <v>11370.813</v>
@@ -2981,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="2">
-        <v>5300</v>
+        <v>5198.4750000000004</v>
       </c>
       <c r="F32">
         <v>5449.17</v>
@@ -3019,7 +3019,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="2">
-        <v>17602.449000000001</v>
+        <v>17622.657999999999</v>
       </c>
       <c r="F33">
         <v>17464.998</v>
@@ -3057,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="2">
-        <v>8353.4230000000007</v>
+        <v>8363.3799999999992</v>
       </c>
       <c r="F34">
         <v>8377.5220000000008</v>
@@ -3095,7 +3095,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="2">
-        <v>9781.2950000000001</v>
+        <v>9771.0059999999994</v>
       </c>
       <c r="F35">
         <v>9587.5490000000009</v>
@@ -3133,7 +3133,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="2">
-        <v>10065.182000000001</v>
+        <v>10527.324000000001</v>
       </c>
       <c r="F36">
         <v>10279.791999999999</v>
@@ -3171,7 +3171,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="2">
-        <v>8395.5789999999997</v>
+        <v>8377.2240000000002</v>
       </c>
       <c r="F37">
         <v>8460.4220000000005</v>
@@ -3209,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="2">
-        <v>12359.651</v>
+        <v>13021.800999999999</v>
       </c>
       <c r="F38">
         <v>13227.405000000001</v>
@@ -3247,7 +3247,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="2">
-        <v>12460.761</v>
+        <v>13144.307000000001</v>
       </c>
       <c r="F39">
         <v>13316.306</v>
@@ -3285,7 +3285,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="2">
-        <v>11099.932000000001</v>
+        <v>11011.807000000001</v>
       </c>
       <c r="F40">
         <v>10975.704</v>
@@ -3323,7 +3323,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="2">
-        <v>9819.14</v>
+        <v>9796.8639999999996</v>
       </c>
       <c r="F41">
         <v>9661.0709999999999</v>
@@ -3361,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2">
-        <v>9026.4740000000002</v>
+        <v>8993.6959999999999</v>
       </c>
       <c r="F42">
         <v>8967.3150000000005</v>
@@ -3399,7 +3399,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="2">
-        <v>8377.9249999999993</v>
+        <v>8213.3140000000003</v>
       </c>
       <c r="F43">
         <v>8224.4509999999991</v>
@@ -3437,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="2">
-        <v>23194.493999999999</v>
+        <v>23024.338</v>
       </c>
       <c r="F44">
         <v>22484.833999999999</v>
@@ -3475,7 +3475,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="2">
-        <v>9071.6329999999998</v>
+        <v>9030.1790000000001</v>
       </c>
       <c r="F45">
         <v>9041.5010000000002</v>
@@ -3513,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="2">
-        <v>19098.488000000001</v>
+        <v>19006.115000000002</v>
       </c>
       <c r="F46">
         <v>17955.973000000002</v>
@@ -3551,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="2">
-        <v>18384.083999999999</v>
+        <v>18203.232</v>
       </c>
       <c r="F47">
         <v>18078.322</v>
@@ -3589,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="E48" s="2">
-        <v>8403.7199999999993</v>
+        <v>8399.9549999999999</v>
       </c>
       <c r="F48">
         <v>8596.6460000000006</v>
@@ -3627,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="2">
-        <v>11073.828</v>
+        <v>11109.608</v>
       </c>
       <c r="F49">
         <v>11376.53</v>
@@ -3665,7 +3665,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="2">
-        <v>11608.823</v>
+        <v>11075.444</v>
       </c>
       <c r="F50">
         <v>10895.549000000001</v>
@@ -3703,7 +3703,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="2">
-        <v>15422.482</v>
+        <v>16139.652</v>
       </c>
       <c r="F51">
         <v>16700.59</v>
@@ -3779,7 +3779,7 @@
         <v>11</v>
       </c>
       <c r="E53" s="2">
-        <v>11604.877</v>
+        <v>11190.294</v>
       </c>
       <c r="F53">
         <v>10905.317999999999</v>
@@ -3817,7 +3817,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="2">
-        <v>9914.3050000000003</v>
+        <v>9587.1059999999998</v>
       </c>
       <c r="F54">
         <v>9948.7530000000006</v>
@@ -3855,7 +3855,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="2">
-        <v>15949.942999999999</v>
+        <v>15919.674999999999</v>
       </c>
       <c r="F55">
         <v>15708.296</v>
@@ -3893,7 +3893,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="2">
-        <v>15468.545</v>
+        <v>16048.755999999999</v>
       </c>
       <c r="F56">
         <v>16727.611000000001</v>
@@ -3931,7 +3931,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="2">
-        <v>19114.705000000002</v>
+        <v>19859.791000000001</v>
       </c>
       <c r="F57">
         <v>20692.294999999998</v>
@@ -3969,7 +3969,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="2">
-        <v>19136.333999999999</v>
+        <v>18902.998</v>
       </c>
       <c r="F58">
         <v>17964.596000000001</v>
@@ -4007,7 +4007,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="2">
-        <v>9910.3590000000004</v>
+        <v>9701.9570000000003</v>
       </c>
       <c r="F59">
         <v>9958.5249999999996</v>
@@ -4045,7 +4045,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="2">
-        <v>8644.4529999999995</v>
+        <v>8564.2209999999995</v>
       </c>
       <c r="F60">
         <v>7899.5450000000001</v>
@@ -4083,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="2">
-        <v>19117.133000000002</v>
+        <v>19822.101999999999</v>
       </c>
       <c r="F61">
         <v>20707.057000000001</v>
@@ -4121,7 +4121,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="2">
-        <v>8678.3520000000008</v>
+        <v>8575.9529999999995</v>
       </c>
       <c r="F62">
         <v>7917.9369999999999</v>
@@ -4159,7 +4159,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="2">
-        <v>6278.34</v>
+        <v>6203.6679999999997</v>
       </c>
       <c r="F63">
         <v>6445.915</v>
@@ -4197,7 +4197,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="2">
-        <v>7000</v>
+        <v>7048.848</v>
       </c>
       <c r="F64">
         <v>7000</v>
@@ -4235,7 +4235,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="2">
-        <v>6214.6670000000004</v>
+        <v>6124.3029999999999</v>
       </c>
       <c r="F65">
         <v>6379.0690000000004</v>
@@ -4273,7 +4273,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="2">
-        <v>8578.7090000000007</v>
+        <v>8503.4590000000007</v>
       </c>
       <c r="F66">
         <v>8315.6170000000002</v>
@@ -4311,7 +4311,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="2">
-        <v>10312.878000000001</v>
+        <v>10226.228999999999</v>
       </c>
       <c r="F67">
         <v>10299.105</v>
@@ -4349,7 +4349,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="2">
-        <v>18353.960999999999</v>
+        <v>18217.307000000001</v>
       </c>
       <c r="F68">
         <v>18056.934000000001</v>
@@ -4387,7 +4387,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="2">
-        <v>7000</v>
+        <v>7002.2569999999996</v>
       </c>
       <c r="F69">
         <v>7000</v>
@@ -4425,7 +4425,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="2">
-        <v>8573.8459999999995</v>
+        <v>8489.7000000000007</v>
       </c>
       <c r="F70">
         <v>8299.4609999999993</v>
@@ -4463,7 +4463,7 @@
         <v>11</v>
       </c>
       <c r="E71" s="2">
-        <v>9647.5059999999994</v>
+        <v>9556.6679999999997</v>
       </c>
       <c r="F71">
         <v>9604.3880000000008</v>
@@ -4501,7 +4501,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="2">
-        <v>8370.6110000000008</v>
+        <v>8202.69</v>
       </c>
       <c r="F72">
         <v>8223.7860000000001</v>
@@ -4539,7 +4539,7 @@
         <v>11</v>
       </c>
       <c r="E73" s="2">
-        <v>9612.52</v>
+        <v>9510.393</v>
       </c>
       <c r="F73">
         <v>9566.8430000000008</v>
@@ -4577,7 +4577,7 @@
         <v>11</v>
       </c>
       <c r="E74" s="2">
-        <v>7888.1629999999996</v>
+        <v>7846.5360000000001</v>
       </c>
       <c r="F74">
         <v>7742.6930000000002</v>
@@ -4615,7 +4615,7 @@
         <v>11</v>
       </c>
       <c r="E75" s="2">
-        <v>11101.040999999999</v>
+        <v>11034.312</v>
       </c>
       <c r="F75">
         <v>10964.603999999999</v>
@@ -4653,7 +4653,7 @@
         <v>11</v>
       </c>
       <c r="E76" s="2">
-        <v>10254.066999999999</v>
+        <v>10160.623</v>
       </c>
       <c r="F76">
         <v>10248.416999999999</v>
@@ -4691,7 +4691,7 @@
         <v>11</v>
       </c>
       <c r="E77" s="2">
-        <v>7845.8639999999996</v>
+        <v>7789.6360000000004</v>
       </c>
       <c r="F77">
         <v>7704.4809999999998</v>
